--- a/metadata/COVIDVAC/COVIDVAC_DASHBOARD_V1_DHIS2.34/reference.xlsx
+++ b/metadata/COVIDVAC/COVIDVAC_DASHBOARD_V1_DHIS2.34/reference.xlsx
@@ -5,19 +5,18 @@
   <sheets>
     <sheet name="Package info" sheetId="1" r:id="rId1"/>
     <sheet name="constants" sheetId="2" r:id="rId2"/>
-    <sheet name="categoryOptionCombos" sheetId="3" r:id="rId3"/>
-    <sheet name="categoryOptionGroupSets" sheetId="4" r:id="rId4"/>
-    <sheet name="categoryOptionGroups" sheetId="5" r:id="rId5"/>
-    <sheet name="categoryOptionGroupsBySet" sheetId="6" r:id="rId6"/>
-    <sheet name="indicatorGroups" sheetId="7" r:id="rId7"/>
-    <sheet name="indicators" sheetId="8" r:id="rId8"/>
-    <sheet name="indicatorTypes" sheetId="9" r:id="rId9"/>
-    <sheet name="dashboards" sheetId="10" r:id="rId10"/>
-    <sheet name="dashboardItems" sheetId="11" r:id="rId11"/>
-    <sheet name="visualizations" sheetId="12" r:id="rId12"/>
-    <sheet name="maps" sheetId="13" r:id="rId13"/>
-    <sheet name="userGroups" sheetId="14" r:id="rId14"/>
-    <sheet name="users" sheetId="15" r:id="rId15"/>
+    <sheet name="categoryOptionGroupSets" sheetId="3" r:id="rId3"/>
+    <sheet name="categoryOptionGroups" sheetId="4" r:id="rId4"/>
+    <sheet name="categoryOptionGroupsBySet" sheetId="5" r:id="rId5"/>
+    <sheet name="indicatorGroups" sheetId="6" r:id="rId6"/>
+    <sheet name="indicators" sheetId="7" r:id="rId7"/>
+    <sheet name="indicatorTypes" sheetId="8" r:id="rId8"/>
+    <sheet name="dashboards" sheetId="9" r:id="rId9"/>
+    <sheet name="dashboardItems" sheetId="10" r:id="rId10"/>
+    <sheet name="visualizations" sheetId="11" r:id="rId11"/>
+    <sheet name="maps" sheetId="12" r:id="rId12"/>
+    <sheet name="userGroups" sheetId="13" r:id="rId13"/>
+    <sheet name="users" sheetId="14" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
@@ -427,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -465,7 +464,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.2</v>
+        <v>1.2.1</v>
       </c>
     </row>
     <row r="5">
@@ -473,23 +472,31 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.34</v>
+        <v>2.34.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Created</v>
+        <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-04-29T11:27</v>
+        <v>aff07fb</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Identifier</v>
+        <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVIDVAC_DASHBOARD_V1.2_DHIS2.34_2021-04-29T11:27</v>
+        <v>20210915T084638</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>COVIDVAC_DASHBOARD_V1.2.1_2.34.4-en</v>
       </c>
     </row>
   </sheetData>
@@ -497,44 +504,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVIDVAC - COVID-19 Vaccination Delivery</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>XAXoJuC3hvM</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -1153,7 +1122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1548,7 +1517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1607,14 +1576,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1632,23 +1601,34 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC admin</v>
+        <v>COVAC data capture</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-09-15</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>e2QMDWpq88P</v>
+        <v>AxmuDEHQApq</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
+        <v>COVAC admin</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>e2QMDWpq88P</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
         <v>COVAC access</v>
       </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C3" s="5" t="str">
+      <c r="B4" s="4" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C4" s="4" t="str">
         <v>OeiDCnG3Pv2</v>
       </c>
     </row>
@@ -1656,7 +1636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1825,143 +1805,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>Open vial, Other reason</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>AnEOc7eqTPG</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>Closed vial, Color change (VVM)</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>EWaVKxhCw7E</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>Open vial, Color change (VVM)</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>iemSXBenfIl</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>Open vial, Contamination</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v>k3G5n6cjo1H</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="str">
-        <v>Closed vial, Partial use</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>MkryG3woLLJ</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <v>Closed vial, Contamination</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <v>QVo1zpPICJN</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="str">
-        <v>Open vial, Partial use</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>RPzlBMTlOxz</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <v>Closed vial, Other reason</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <v>utXnwFzJgiA</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="str">
-        <v>Closed vial, Expiry</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v>x0WvdmAkQqF</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="str">
-        <v>Open vial, Expiry</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <v>x1IX3hw1Xwl</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
@@ -2020,7 +1863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2205,7 +2048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2316,7 +2159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2361,7 +2204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J240"/>
   <sheetViews>
@@ -10064,7 +9907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -10121,4 +9964,42 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVIDVAC - COVID-19 Vaccination Delivery</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>XAXoJuC3hvM</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>